--- a/NLP/entity_dictionary__template.xlsx
+++ b/NLP/entity_dictionary__template.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="guide" sheetId="2" r:id="rId1"/>
+    <sheet name="template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +19,38 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Instructions here ...</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>isCaseSensitive</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,10 +363,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NLP/entity_dictionary__template.xlsx
+++ b/NLP/entity_dictionary__template.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="guide" sheetId="2" r:id="rId1"/>
+    <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
     <sheet name="template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Instructions here ...</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>authority</t>
   </si>
@@ -35,13 +32,75 @@
   </si>
   <si>
     <t>pattern</t>
+  </si>
+  <si>
+    <t>The pattern to match.</t>
+  </si>
+  <si>
+    <t>FIELD</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Whether or not the patters should be a case-sensitive match (TRUE) or case-insensitive (FALSE).</t>
+  </si>
+  <si>
+    <t>nc.gov</t>
+  </si>
+  <si>
+    <t>EXAMPLE_01</t>
+  </si>
+  <si>
+    <t>EXAMPLE_02</t>
+  </si>
+  <si>
+    <t>Government of North Carolina</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>The string with which to "tag" the pattern.</t>
+  </si>
+  <si>
+    <t>United States Department of {abc} and {abc}</t>
+  </si>
+  <si>
+    <t>Use only "TRUE" or "FALSE".</t>
+  </si>
+  <si>
+    <t>Use natural language patterns and avoid punctuation marks.
+Make all attempts to avoid regular expressions as these should be placed in stand-alone text files and vigorosuly tested beforehand.
+For wildcard matches use one or more of the following patterns:
+- {abc} to match only letters,
+ - {123} to match only numbers,
+ - {***} to match an alphanumeric pattern.</t>
+  </si>
+  <si>
+    <t>north_carolina_government</t>
+  </si>
+  <si>
+    <t>FEDERAL.department_name</t>
+  </si>
+  <si>
+    <t>A unique identifier of the institution associated with determining the pattern and label.</t>
+  </si>
+  <si>
+    <t>Use domain-style tokens. Use only letters, periods, and underscores.</t>
+  </si>
+  <si>
+    <t>Use only letters, periods, and underscores.</t>
+  </si>
+  <si>
+    <t>unc.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +110,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,9 +145,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,17 +437,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
+    <col min="2" max="5" width="25.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -383,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,16 +555,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/NLP/entity_dictionary__template.xlsx
+++ b/NLP/entity_dictionary__template.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
-    <sheet name="template" sheetId="1" r:id="rId2"/>
+    <sheet name="Entities" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>authority</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>unc.edu</t>
+  </si>
+  <si>
+    <t>Note that only workbooks (.xlsx files) with a worksheet named "Entities" (case-sensitive) will be usable by the TOMES software.</t>
+  </si>
+  <si>
+    <t>The data dictionary below describes the columns in the "Entities" worksheet.</t>
   </si>
 </sst>
 </file>
@@ -125,12 +131,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,16 +157,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -437,103 +455,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="3" customWidth="1"/>
-    <col min="2" max="5" width="25.7109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="5" width="25.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="5" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="b">
+      <c r="D6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="b">
+      <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/NLP/entity_dictionary__template.xlsx
+++ b/NLP/entity_dictionary__template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>authority</t>
   </si>
@@ -87,9 +87,6 @@
     <t>A unique identifier of the institution associated with determining the pattern and label.</t>
   </si>
   <si>
-    <t>Use domain-style tokens. Use only letters, periods, and underscores.</t>
-  </si>
-  <si>
     <t>Use only letters, periods, and underscores.</t>
   </si>
   <si>
@@ -100,6 +97,24 @@
   </si>
   <si>
     <t>The data dictionary below describes the columns in the "Entities" worksheet.</t>
+  </si>
+  <si>
+    <t>Use domain-style tokens. Use only letters, periods, underscores, and hyphens.</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Aim for short, single sentence descriptions.</t>
+  </si>
+  <si>
+    <t>A reference to the state government of North Carolina.</t>
+  </si>
+  <si>
+    <t>A simple definition of the entity that the pattern is meant to capture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A generic reference to federal departments with two-part names. </t>
   </si>
 </sst>
 </file>
@@ -169,11 +184,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,31 +483,31 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -513,55 +528,72 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="b">
+      <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="b">
+      <c r="E7" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -574,30 +606,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/NLP/entity_dictionary__template.xlsx
+++ b/NLP/entity_dictionary__template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>authority</t>
   </si>
   <si>
-    <t>isCaseSensitive</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t xml:space="preserve">A generic reference to federal departments with two-part names. </t>
+  </si>
+  <si>
+    <t>case_sensitive</t>
   </si>
 </sst>
 </file>
@@ -485,75 +485,75 @@
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>1</v>
@@ -564,19 +564,19 @@
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -584,16 +584,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +609,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,16 +622,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>

--- a/NLP/entity_dictionary__template.xlsx
+++ b/NLP/entity_dictionary__template.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
-    <sheet name="Entities" sheetId="1" r:id="rId2"/>
+    <sheet name="ent__example" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -90,12 +90,6 @@
     <t>unc.edu</t>
   </si>
   <si>
-    <t>Note that only workbooks (.xlsx files) with a worksheet named "Entities" (case-sensitive) will be usable by the TOMES software.</t>
-  </si>
-  <si>
-    <t>The data dictionary below describes the columns in the "Entities" worksheet.</t>
-  </si>
-  <si>
     <t>Use domain-style tokens. Use only letters, periods, underscores, and hyphens.</t>
   </si>
   <si>
@@ -115,6 +109,27 @@
   </si>
   <si>
     <t>case_sensitive</t>
+  </si>
+  <si>
+    <t>The data dictionary below describes the columns in the example "ent_example" worksheet.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note that only workbooks (.xlsx files) with one or more worksheets starting with string "ent__" (case-sensitive) will be usable by the TOMES software.
+These worksheets must also contain all the columns below.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note that the string "ent__" ends with a double underscore.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -181,11 +196,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -472,42 +487,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="2" customWidth="1"/>
     <col min="2" max="5" width="25.7109375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -530,24 +545,24 @@
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -587,7 +602,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>7</v>
@@ -608,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -625,10 +640,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>

--- a/NLP/entity_dictionary__template.xlsx
+++ b/NLP/entity_dictionary__template.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
-    <sheet name="ent__example" sheetId="1" r:id="rId2"/>
+    <sheet name="Entities" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,8 +19,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Note that using nomenclature that starts with a broader concept ("FEDERAL") followed by a "." will make it easier to group/facet all sub-concepts underneath the broader concept.
+If this type of notation is used, it is highly advised to refrain from using "." characters in the remaining part of the string.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>authority</t>
   </si>
@@ -111,32 +146,18 @@
     <t>case_sensitive</t>
   </si>
   <si>
-    <t>The data dictionary below describes the columns in the example "ent_example" worksheet.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Note that only workbooks (.xlsx files) with one or more worksheets starting with string "ent__" (case-sensitive) will be usable by the TOMES software.
-These worksheets must also contain all the columns below.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note that the string "ent__" ends with a double underscore.</t>
-    </r>
+    <t>Note that only workbooks (.xlsx files) with a worksheet named "Entities" (case sensitive) will be usable by the TOMES software.
+The "Entities" worksheet must also contain all the required columns.</t>
+  </si>
+  <si>
+    <t>The data dictionary below describes the required columns for a TOMES Entity Dictionary worksheet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +180,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -187,9 +221,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -204,6 +237,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,126 +526,126 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="2" customWidth="1"/>
-    <col min="2" max="5" width="25.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="25.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="b">
+      <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="b">
+      <c r="E7" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -620,39 +658,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/NLP/entity_dictionary__template.xlsx
+++ b/NLP/entity_dictionary__template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="4500" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
@@ -102,55 +102,56 @@
     <t>Use only "TRUE" or "FALSE".</t>
   </si>
   <si>
+    <t>north_carolina_government</t>
+  </si>
+  <si>
+    <t>FEDERAL.department_name</t>
+  </si>
+  <si>
+    <t>A unique identifier of the institution associated with determining the pattern and label.</t>
+  </si>
+  <si>
+    <t>Use only letters, periods, and underscores.</t>
+  </si>
+  <si>
+    <t>unc.edu</t>
+  </si>
+  <si>
+    <t>Use domain-style tokens. Use only letters, periods, underscores, and hyphens.</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Aim for short, single sentence descriptions.</t>
+  </si>
+  <si>
+    <t>A reference to the state government of North Carolina.</t>
+  </si>
+  <si>
+    <t>A simple definition of the entity that the pattern is meant to capture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A generic reference to federal departments with two-part names. </t>
+  </si>
+  <si>
+    <t>case_sensitive</t>
+  </si>
+  <si>
+    <t>The data dictionary below describes the required columns for a TOMES Entity Dictionary worksheet.</t>
+  </si>
+  <si>
+    <t>Note that only workbooks (.xlsx files) with a worksheet named "Entities" (case sensitive) will be usable by the TOMES software.
+The "Entities" worksheet must also contain all the required columns.
+No cell in any column may be blank otherwise. The software will skip any row with a blank cell.</t>
+  </si>
+  <si>
     <t>Use natural language patterns and avoid punctuation marks.
 Make all attempts to avoid regular expressions as these should be placed in stand-alone text files and vigorosuly tested beforehand.
 For wildcard matches use one or more of the following patterns:
 - {abc} to match only letters,
  - {123} to match only numbers,
- - {***} to match an alphanumeric pattern.</t>
-  </si>
-  <si>
-    <t>north_carolina_government</t>
-  </si>
-  <si>
-    <t>FEDERAL.department_name</t>
-  </si>
-  <si>
-    <t>A unique identifier of the institution associated with determining the pattern and label.</t>
-  </si>
-  <si>
-    <t>Use only letters, periods, and underscores.</t>
-  </si>
-  <si>
-    <t>unc.edu</t>
-  </si>
-  <si>
-    <t>Use domain-style tokens. Use only letters, periods, underscores, and hyphens.</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Aim for short, single sentence descriptions.</t>
-  </si>
-  <si>
-    <t>A reference to the state government of North Carolina.</t>
-  </si>
-  <si>
-    <t>A simple definition of the entity that the pattern is meant to capture.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A generic reference to federal departments with two-part names. </t>
-  </si>
-  <si>
-    <t>case_sensitive</t>
-  </si>
-  <si>
-    <t>Note that only workbooks (.xlsx files) with a worksheet named "Entities" (case sensitive) will be usable by the TOMES software.
-The "Entities" worksheet must also contain all the required columns.</t>
-  </si>
-  <si>
-    <t>The data dictionary below describes the required columns for a TOMES Entity Dictionary worksheet.</t>
+ - {abc123} to match an alphanumeric pattern.</t>
   </si>
 </sst>
 </file>
@@ -525,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,10 +539,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -572,7 +573,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -583,24 +584,24 @@
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -623,13 +624,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -637,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -679,10 +680,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
@@ -696,13 +697,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>7</v>
@@ -713,16 +714,16 @@
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/NLP/entity_dictionary__template.xlsx
+++ b/NLP/entity_dictionary__template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4500" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="4950" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>Whether or not the patters should be a case-sensitive match (TRUE) or case-insensitive (FALSE).</t>
-  </si>
-  <si>
     <t>nc.gov</t>
   </si>
   <si>
@@ -111,15 +108,9 @@
     <t>A unique identifier of the institution associated with determining the pattern and label.</t>
   </si>
   <si>
-    <t>Use only letters, periods, and underscores.</t>
-  </si>
-  <si>
     <t>unc.edu</t>
   </si>
   <si>
-    <t>Use domain-style tokens. Use only letters, periods, underscores, and hyphens.</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -139,11 +130,6 @@
   </si>
   <si>
     <t>The data dictionary below describes the required columns for a TOMES Entity Dictionary worksheet.</t>
-  </si>
-  <si>
-    <t>Note that only workbooks (.xlsx files) with a worksheet named "Entities" (case sensitive) will be usable by the TOMES software.
-The "Entities" worksheet must also contain all the required columns.
-No cell in any column may be blank otherwise. The software will skip any row with a blank cell.</t>
   </si>
   <si>
     <t>Use natural language patterns and avoid punctuation marks.
@@ -152,6 +138,20 @@
 - {abc} to match only letters,
  - {123} to match only numbers,
  - {abc123} to match an alphanumeric pattern.</t>
+  </si>
+  <si>
+    <t>Note that only workbooks (.xlsx files) with a worksheet named "Entities" (case sensitive) will be usable by the TOMES software.
+The "Entities" worksheet must also contain all the required columns.
+No cell in any column may be blank. The software will skip any row with a blank cell.</t>
+  </si>
+  <si>
+    <t>Whether or not the pattern should be a case-sensitive match (TRUE) or case-insensitive (FALSE).</t>
+  </si>
+  <si>
+    <t>Use only letters, periods, underscores and hyphens.</t>
+  </si>
+  <si>
+    <t>Use domain-style tokens. Use only letters, periods, underscores and hyphens.</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,12 +539,12 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -556,13 +556,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="315" x14ac:dyDescent="0.25">
@@ -573,41 +573,41 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>1</v>
@@ -621,16 +621,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -638,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -680,10 +680,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
@@ -694,36 +694,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/NLP/entity_dictionary__template.xlsx
+++ b/NLP/entity_dictionary__template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4950" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="5850" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
@@ -140,18 +140,18 @@
  - {abc123} to match an alphanumeric pattern.</t>
   </si>
   <si>
-    <t>Note that only workbooks (.xlsx files) with a worksheet named "Entities" (case sensitive) will be usable by the TOMES software.
+    <t>Whether or not the pattern should be a case-sensitive match (TRUE) or case-insensitive (FALSE).</t>
+  </si>
+  <si>
+    <t>Use only letters, periods, underscores and hyphens.</t>
+  </si>
+  <si>
+    <t>Use domain-style tokens. Use only letters, periods, underscores and hyphens.</t>
+  </si>
+  <si>
+    <t>Note that only Office 2007+ workbooks ending in "__mapping.xlsx" AND containing a worksheet named "Entities" (case sensitive) will be usable by the TOMES software.
 The "Entities" worksheet must also contain all the required columns.
 No cell in any column may be blank. The software will skip any row with a blank cell.</t>
-  </si>
-  <si>
-    <t>Whether or not the pattern should be a case-sensitive match (TRUE) or case-insensitive (FALSE).</t>
-  </si>
-  <si>
-    <t>Use only letters, periods, underscores and hyphens.</t>
-  </si>
-  <si>
-    <t>Use domain-style tokens. Use only letters, periods, underscores and hyphens.</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,9 +542,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -624,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -641,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>

--- a/NLP/entity_dictionary__template.xlsx
+++ b/NLP/entity_dictionary__template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5850" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
@@ -34,19 +34,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Note that using nomenclature that starts with a broader concept ("FEDERAL") followed by a "." will make it easier to group/facet all sub-concepts underneath the broader concept.
-If this type of notation is used, it is highly advised to refrain from using "." characters in the remaining part of the string.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>Note that using nomenclature that starts with a broader concept ("FEDERAL") followed by a "." will make it easier to group/facet all sub-concepts underneath the broader concept. Also, note how the broader concept is all capitalized.
+If this type of notation is used at all throughout the dictionary, do not use use "." characters in the remaining part of strings. Also, do not use all capital letters for remaining parts of strings.</t>
         </r>
       </text>
     </comment>
@@ -55,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>authority</t>
   </si>
@@ -93,18 +82,9 @@
     <t>The string with which to "tag" the pattern.</t>
   </si>
   <si>
-    <t>United States Department of {abc} and {abc}</t>
-  </si>
-  <si>
-    <t>Use only "TRUE" or "FALSE".</t>
-  </si>
-  <si>
     <t>north_carolina_government</t>
   </si>
   <si>
-    <t>FEDERAL.department_name</t>
-  </si>
-  <si>
     <t>A unique identifier of the institution associated with determining the pattern and label.</t>
   </si>
   <si>
@@ -123,42 +103,52 @@
     <t>A simple definition of the entity that the pattern is meant to capture.</t>
   </si>
   <si>
-    <t xml:space="preserve">A generic reference to federal departments with two-part names. </t>
-  </si>
-  <si>
     <t>case_sensitive</t>
   </si>
   <si>
     <t>The data dictionary below describes the required columns for a TOMES Entity Dictionary worksheet.</t>
   </si>
   <si>
-    <t>Use natural language patterns and avoid punctuation marks.
-Make all attempts to avoid regular expressions as these should be placed in stand-alone text files and vigorosuly tested beforehand.
-For wildcard matches use one or more of the following patterns:
-- {abc} to match only letters,
- - {123} to match only numbers,
- - {abc123} to match an alphanumeric pattern.</t>
-  </si>
-  <si>
     <t>Whether or not the pattern should be a case-sensitive match (TRUE) or case-insensitive (FALSE).</t>
-  </si>
-  <si>
-    <t>Use only letters, periods, underscores and hyphens.</t>
-  </si>
-  <si>
-    <t>Use domain-style tokens. Use only letters, periods, underscores and hyphens.</t>
   </si>
   <si>
     <t>Note that only Office 2007+ workbooks ending in "__mapping.xlsx" AND containing a worksheet named "Entities" (case sensitive) will be usable by the TOMES software.
 The "Entities" worksheet must also contain all the required columns.
 No cell in any column may be blank. The software will skip any row with a blank cell.</t>
+  </si>
+  <si>
+    <t>United States Department of  Tourism and Travel</t>
+  </si>
+  <si>
+    <t>Use natural language patterns and avoid punctuation marks.</t>
+  </si>
+  <si>
+    <t>Use only letters, periods, underscores and hyphens.
+See the "Entities" worksheet for more information.</t>
+  </si>
+  <si>
+    <t>Use domain-style tokens.
+Use only letters, periods, underscores and hyphens.</t>
+  </si>
+  <si>
+    <t>FEDERAL.organization</t>
+  </si>
+  <si>
+    <t>FEDERAL.department</t>
+  </si>
+  <si>
+    <t>A colloquial reference to Consular Affairs at the federal Department of State.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use only "TRUE" or "FALSE".
+Generally avoid "FALSE" unless you have a specific reason to do so (phrase is often spelled with different case). </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,13 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -222,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -241,6 +224,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -527,7 +513,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,14 +523,14 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
+    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -565,7 +551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -573,41 +559,41 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="b">
         <v>1</v>
@@ -616,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -624,13 +610,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -638,16 +624,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -680,10 +666,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
@@ -697,33 +683,33 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/NLP/entity_dictionary__template.xlsx
+++ b/NLP/entity_dictionary__template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="7200" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>authority</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>A reference to the state government of North Carolina.</t>
-  </si>
-  <si>
-    <t>A simple definition of the entity that the pattern is meant to capture.</t>
   </si>
   <si>
     <t>case_sensitive</t>
@@ -134,21 +131,42 @@
     <t>FEDERAL.organization</t>
   </si>
   <si>
-    <t>FEDERAL.department</t>
-  </si>
-  <si>
-    <t>A colloquial reference to Consular Affairs at the federal Department of State.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Use only "TRUE" or "FALSE".
 Generally avoid "FALSE" unless you have a specific reason to do so (phrase is often spelled with different case). </t>
+  </si>
+  <si>
+    <t>A simple definition of the label that the pattern is meant to capture.</t>
+  </si>
+  <si>
+    <t>A reference to a federal organization, department, or agency.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,12 +189,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -205,20 +217,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -227,7 +227,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,121 +533,121 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="25.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="34.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="25.7109375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="b">
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -654,61 +669,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="40.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="b">
+      <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="b">
+      <c r="C3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/NLP/entity_dictionary__template.xlsx
+++ b/NLP/entity_dictionary__template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="8100" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>The string with which to "tag" the pattern.</t>
   </si>
   <si>
-    <t>north_carolina_government</t>
-  </si>
-  <si>
     <t>A unique identifier of the institution associated with determining the pattern and label.</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>Aim for short, single sentence descriptions.</t>
   </si>
   <si>
     <t>A reference to the state government of North Carolina.</t>
@@ -135,10 +129,16 @@
 Generally avoid "FALSE" unless you have a specific reason to do so (phrase is often spelled with different case). </t>
   </si>
   <si>
-    <t>A simple definition of the label that the pattern is meant to capture.</t>
-  </si>
-  <si>
-    <t>A reference to a federal organization, department, or agency.</t>
+    <t>A simple definition of the pattern.</t>
+  </si>
+  <si>
+    <t>A colloquial reference to Consular Affairs at the federal Department of State.</t>
+  </si>
+  <si>
+    <t>state_government</t>
+  </si>
+  <si>
+    <t>Aim for short, single sentence descriptions of the pattern.</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -231,18 +231,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -533,122 +530,122 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="25.7109375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="34.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="25.7109375" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -664,7 +661,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,10 +678,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -698,13 +695,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -712,19 +709,19 @@
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/NLP/entity_dictionary__template.xlsx
+++ b/NLP/entity_dictionary__template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8100" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="8550" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>authority</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t>Aim for short, single sentence descriptions of the pattern.</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>A unique identifier for the row.</t>
+  </si>
+  <si>
+    <t>Use zero-padded integers with a length of 4 characters.</t>
+  </si>
+  <si>
+    <t>0010</t>
   </si>
 </sst>
 </file>
@@ -217,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -231,15 +249,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -522,129 +552,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="25.7109375" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="34.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="25.7109375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="b">
+      <c r="D8" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="b">
+      <c r="E8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -658,74 +705,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="40.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="b">
+      <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="b">
+      <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A3" numberStoredAsText="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>